--- a/cat-zson/src/main/resources/excel/sx.属性.xlsx
+++ b/cat-zson/src/main/resources/excel/sx.属性.xlsx
@@ -293,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -320,74 +320,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,38 +426,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -441,6 +433,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -448,16 +449,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,187 +502,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,6 +727,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -737,24 +752,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,17 +771,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,19 +809,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,10 +831,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,133 +843,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1344,7 +1344,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/cat-zson/src/main/resources/excel/sx.属性.xlsx
+++ b/cat-zson/src/main/resources/excel/sx.属性.xlsx
@@ -293,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -319,6 +319,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -328,77 +403,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,8 +447,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,44 +460,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,31 +502,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,49 +628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,85 +652,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,16 +727,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,41 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -806,11 +800,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,8 +818,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,10 +831,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,133 +843,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1344,7 +1344,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/cat-zson/src/main/resources/excel/sx.属性.xlsx
+++ b/cat-zson/src/main/resources/excel/sx.属性.xlsx
@@ -293,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -319,30 +319,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -352,21 +365,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,21 +379,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,37 +410,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,28 +461,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -474,6 +468,12 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -502,13 +502,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,55 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,31 +622,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,19 +664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,49 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,46 +726,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,17 +750,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,12 +776,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -831,10 +831,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,133 +843,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1344,7 +1344,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+      <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/cat-zson/src/main/resources/excel/sx.属性.xlsx
+++ b/cat-zson/src/main/resources/excel/sx.属性.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -92,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0">
+    <comment ref="A13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="75">
   <si>
     <t>key</t>
   </si>
@@ -180,64 +181,82 @@
     <t>力量</t>
   </si>
   <si>
+    <t>增加物理攻击</t>
+  </si>
+  <si>
+    <t>核心属性,随着等级的变化而变化</t>
+  </si>
+  <si>
+    <t>体质</t>
+  </si>
+  <si>
+    <t>增加血量</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>增加受击闪躲能力</t>
+  </si>
+  <si>
+    <t>智慧</t>
+  </si>
+  <si>
+    <t>增加魔法攻击</t>
+  </si>
+  <si>
+    <t>灵巧</t>
+  </si>
+  <si>
+    <t>增加物理防御</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>增加魔法防御</t>
+  </si>
+  <si>
+    <t>耐力</t>
+  </si>
+  <si>
+    <t>增加命中能力</t>
+  </si>
+  <si>
+    <t>力量资质</t>
+  </si>
+  <si>
     <t>增加物理攻击力</t>
   </si>
   <si>
-    <t>核心属性,随着等级的变化而变化</t>
-  </si>
-  <si>
-    <t>体质</t>
-  </si>
-  <si>
-    <t>增加血量</t>
-  </si>
-  <si>
-    <t>敏捷</t>
-  </si>
-  <si>
-    <t>增加受击闪躲能力</t>
-  </si>
-  <si>
-    <t>智慧</t>
-  </si>
-  <si>
-    <t>增加魔法攻击</t>
-  </si>
-  <si>
-    <t>灵巧</t>
+    <t>核心资质,鉴定后不会变化</t>
+  </si>
+  <si>
+    <t>体质资质</t>
+  </si>
+  <si>
+    <t>敏捷资质</t>
+  </si>
+  <si>
+    <t>智慧资质</t>
+  </si>
+  <si>
+    <t>灵巧资质</t>
   </si>
   <si>
     <t>增加防御能力</t>
   </si>
   <si>
-    <t>精神</t>
+    <t>精神资质</t>
   </si>
   <si>
     <t>增加魔防能力</t>
   </si>
   <si>
-    <t>力量资质</t>
-  </si>
-  <si>
-    <t>核心资质,鉴定后不会变化</t>
-  </si>
-  <si>
-    <t>体质资质</t>
-  </si>
-  <si>
-    <t>敏捷资质</t>
-  </si>
-  <si>
-    <t>智慧资质</t>
-  </si>
-  <si>
-    <t>灵巧资质</t>
-  </si>
-  <si>
-    <t>精神资质</t>
-  </si>
-  <si>
-    <t>攻击力</t>
+    <t>耐力资质</t>
+  </si>
+  <si>
+    <t>物理攻击</t>
   </si>
   <si>
     <t>直接攻击伤害</t>
@@ -264,7 +283,7 @@
     <t>魔法攻击伤害</t>
   </si>
   <si>
-    <t>防御</t>
+    <t>物理防御</t>
   </si>
   <si>
     <t>防御能力,抵御部分攻击伤害</t>
@@ -276,6 +295,12 @@
     <t>魔防,抵御部分法术攻击伤害</t>
   </si>
   <si>
+    <t>命中</t>
+  </si>
+  <si>
+    <t>加强攻击命中率</t>
+  </si>
+  <si>
     <t>暴击</t>
   </si>
   <si>
@@ -286,6 +311,42 @@
   </si>
   <si>
     <t>魔法暴击,按照一定比例额外增加伤害</t>
+  </si>
+  <si>
+    <t>物暴减伤</t>
+  </si>
+  <si>
+    <t>降低一定程度的物理暴击伤害</t>
+  </si>
+  <si>
+    <t>魔爆减伤</t>
+  </si>
+  <si>
+    <t>降低一定程度的魔法暴击伤害</t>
+  </si>
+  <si>
+    <t>物理穿透</t>
+  </si>
+  <si>
+    <t>忽视目标物理防御</t>
+  </si>
+  <si>
+    <t>魔法穿透</t>
+  </si>
+  <si>
+    <t>忽视目标魔法防御</t>
+  </si>
+  <si>
+    <t>物爆免疫</t>
+  </si>
+  <si>
+    <t>一定程度降低被物理暴击的概率</t>
+  </si>
+  <si>
+    <t>魔爆免疫</t>
+  </si>
+  <si>
+    <t>一定程度降低被魔法暴击的概率</t>
   </si>
 </sst>
 </file>
@@ -294,8 +355,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -308,6 +369,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -315,12 +382,36 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,20 +425,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -356,15 +433,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,59 +494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -439,17 +502,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,19 +517,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,61 +545,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,19 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +731,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -592,97 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,6 +766,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -712,25 +800,31 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,9 +846,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,56 +896,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -834,7 +907,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,153 +916,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,10 +1420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1356,422 +1435,575 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
         <v>101</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
         <v>102</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
         <v>103</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
         <v>104</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
         <v>105</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
         <v>106</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>107</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
         <v>201</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5">
+        <v>202</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5">
+        <v>203</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>204</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5">
+        <v>205</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>206</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="16.5" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>207</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
-        <v>202</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3">
-        <v>203</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3">
-        <v>204</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3">
-        <v>205</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3">
-        <v>206</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
+    </row>
+    <row r="20" ht="16.5" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6">
         <v>301</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="C20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6">
         <v>302</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="C21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:5">
+      <c r="A22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6">
         <v>303</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="C22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
         <v>304</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4">
+    </row>
+    <row r="24" ht="16.5" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="6">
         <v>305</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="C24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="6">
         <v>306</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="1:5">
-      <c r="A24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="C25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="6">
         <v>307</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:5">
-      <c r="A25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="4">
+      <c r="C26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="6">
         <v>308</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>40</v>
+      <c r="C27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:5">
+      <c r="A28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="6">
+        <v>309</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:5">
+      <c r="A29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="6">
+        <v>310</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:5">
+      <c r="A30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="6">
+        <v>311</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:5">
+      <c r="A31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="6">
+        <v>312</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="6">
+        <v>313</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:5">
+      <c r="A33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="6">
+        <v>314</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:5">
+      <c r="A34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="6">
+        <v>315</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1780,4 +2012,278 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C11:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="11" ht="16.5" spans="4:10">
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="3:10">
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" ht="16.5" spans="3:10">
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" ht="16.5" spans="3:10">
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" ht="16.5" spans="3:10">
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" ht="16.5" spans="3:10">
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" ht="16.5" spans="3:10">
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="3:10">
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" ht="16.5" spans="3:10">
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" ht="16.5" spans="3:10">
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" ht="16.5" spans="3:10">
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" ht="16.5" spans="3:10">
+      <c r="C22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="3:10">
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" ht="16.5" spans="3:10">
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" ht="16.5" spans="3:10">
+      <c r="C25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" ht="16.5" spans="3:10">
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/cat-zson/src/main/resources/excel/sx.属性.xlsx
+++ b/cat-zson/src/main/resources/excel/sx.属性.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
     <t>增加受击闪躲能力</t>
   </si>
   <si>
-    <t>速度性能力,直接增加闪躲能力,间接增加穿透能力,略微降低被暴击能力</t>
+    <t>灵活性能力,直接增加闪躲能力,间接增加穿透能力,略微降低被暴击能力</t>
   </si>
   <si>
     <t>智慧</t>
@@ -477,10 +477,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -504,22 +504,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,30 +550,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,17 +572,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,19 +600,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -625,23 +624,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,91 +698,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,90 +879,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,41 +922,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,16 +950,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,6 +987,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1027,10 +1027,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,133 +1039,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1542,8 +1542,8 @@
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2161,10 +2161,10 @@
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1">
         <v>318</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2178,10 +2178,10 @@
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="A38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="3">
         <v>319</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2207,8 +2207,8 @@
   <sheetPr/>
   <dimension ref="C3:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/cat-zson/src/main/resources/excel/sx.属性.xlsx
+++ b/cat-zson/src/main/resources/excel/sx.属性.xlsx
@@ -512,7 +512,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -521,14 +521,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -536,28 +536,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,7 +551,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,13 +573,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,7 +588,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,14 +648,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -698,6 +698,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -710,13 +716,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,157 +860,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,6 +932,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -948,24 +972,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,17 +1019,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1027,10 +1027,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,133 +1039,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1542,8 +1542,8 @@
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/cat-zson/src/main/resources/excel/sx.属性.xlsx
+++ b/cat-zson/src/main/resources/excel/sx.属性.xlsx
@@ -178,22 +178,58 @@
     <t>true</t>
   </si>
   <si>
+    <t>体质</t>
+  </si>
+  <si>
+    <t>增加生命值</t>
+  </si>
+  <si>
+    <t>体质类属性,直接影响生命值</t>
+  </si>
+  <si>
     <t>力量</t>
   </si>
   <si>
-    <t>忽视目标物理防御</t>
+    <t>增加攻击力</t>
   </si>
   <si>
     <t>攻击性能力,直接增加物理攻击力,间接增加暴击,穿透,免疫能力</t>
   </si>
   <si>
-    <t>体质</t>
-  </si>
-  <si>
-    <t>增加生命值</t>
-  </si>
-  <si>
-    <t>体质类属性,直接影响生命值</t>
+    <t>智慧</t>
+  </si>
+  <si>
+    <t>增加魔法攻击</t>
+  </si>
+  <si>
+    <t>攻击性能力,直接增加魔法攻击力,间接增加暴击,穿透,免疫能力</t>
+  </si>
+  <si>
+    <t>灵巧</t>
+  </si>
+  <si>
+    <t>增加物理防御</t>
+  </si>
+  <si>
+    <t>防御性能力,直接增加物理防御值,间接降低物暴伤害,增加格挡,免疫能力</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>增加魔法防御</t>
+  </si>
+  <si>
+    <t>防御性能力,直接增加魔法防御值,间接降低魔爆伤害,增加格挡,免疫能力</t>
+  </si>
+  <si>
+    <t>耐力</t>
+  </si>
+  <si>
+    <t>增加命中能力</t>
+  </si>
+  <si>
+    <t>持久性能力,直接增加命中能力,间接增加暴击能力,略微降低穿透能力</t>
   </si>
   <si>
     <t>敏捷</t>
@@ -205,40 +241,13 @@
     <t>灵活性能力,直接增加闪躲能力,间接增加穿透能力,略微降低被暴击能力</t>
   </si>
   <si>
-    <t>智慧</t>
-  </si>
-  <si>
-    <t>增加魔法攻击</t>
-  </si>
-  <si>
-    <t>攻击性能力,直接增加魔法攻击力,间接增加暴击,穿透,免疫能力</t>
-  </si>
-  <si>
-    <t>灵巧</t>
-  </si>
-  <si>
-    <t>增加物理防御</t>
-  </si>
-  <si>
-    <t>防御性能力,直接增加物理防御值,间接降低物暴伤害,增加格挡,免疫能力</t>
-  </si>
-  <si>
-    <t>精神</t>
-  </si>
-  <si>
-    <t>增加魔法防御</t>
-  </si>
-  <si>
-    <t>防御性能力,直接增加魔法防御值,间接降低魔爆伤害,增加格挡,免疫能力</t>
-  </si>
-  <si>
-    <t>耐力</t>
-  </si>
-  <si>
-    <t>增加命中能力</t>
-  </si>
-  <si>
-    <t>持久性能力,直接增加命中能力,间接增加暴击能力,略微降低穿透能力</t>
+    <t>体质资质</t>
+  </si>
+  <si>
+    <t>增加血量</t>
+  </si>
+  <si>
+    <t>核心资质,鉴定后不会变化</t>
   </si>
   <si>
     <t>力量资质</t>
@@ -247,34 +256,25 @@
     <t>增加物理攻击力</t>
   </si>
   <si>
-    <t>核心资质,鉴定后不会变化</t>
-  </si>
-  <si>
-    <t>体质资质</t>
-  </si>
-  <si>
-    <t>增加血量</t>
+    <t>智慧资质</t>
+  </si>
+  <si>
+    <t>灵巧资质</t>
+  </si>
+  <si>
+    <t>增加防御能力</t>
+  </si>
+  <si>
+    <t>精神资质</t>
+  </si>
+  <si>
+    <t>增加魔防能力</t>
+  </si>
+  <si>
+    <t>耐力资质</t>
   </si>
   <si>
     <t>敏捷资质</t>
-  </si>
-  <si>
-    <t>智慧资质</t>
-  </si>
-  <si>
-    <t>灵巧资质</t>
-  </si>
-  <si>
-    <t>增加防御能力</t>
-  </si>
-  <si>
-    <t>精神资质</t>
-  </si>
-  <si>
-    <t>增加魔防能力</t>
-  </si>
-  <si>
-    <t>耐力资质</t>
   </si>
   <si>
     <t>生命</t>
@@ -477,9 +477,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -503,8 +503,114 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -519,106 +625,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,14 +648,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -698,19 +698,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,162 +879,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,11 +922,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,22 +956,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,6 +968,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,23 +1005,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,10 +1027,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,133 +1039,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E11"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1735,7 +1735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="16.5" spans="1:5">
+    <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>41</v>
@@ -1828,10 +1828,10 @@
         <v>205</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>41</v>
@@ -1845,10 +1845,10 @@
         <v>206</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>41</v>
@@ -2223,25 +2223,25 @@
         <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>90</v>
@@ -2573,25 +2573,25 @@
         <v>108</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>90</v>
